--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>Taiwan Semiconductor Manufactur</t>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>날짜</t>
   </si>
@@ -34,22 +34,34 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
   </si>
   <si>
     <t>Taiwan Semiconductor Manufactur</t>
@@ -58,12 +70,12 @@
     <t>ASML Holding N.V. - New York Re</t>
   </si>
   <si>
+    <t>Advanced Micro Devices, Inc.</t>
+  </si>
+  <si>
     <t>NVIDIA Corporation</t>
   </si>
   <si>
-    <t>Advanced Micro Devices, Inc.</t>
-  </si>
-  <si>
     <t>QUALCOMM Incorporated</t>
   </si>
   <si>
@@ -73,16 +85,25 @@
     <t>ASML</t>
   </si>
   <si>
+    <t>AMD</t>
+  </si>
+  <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
     <t>QCOM</t>
   </si>
   <si>
-    <t>건드리지 말기</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -440,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,25 +501,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>289.96</v>
-      </c>
-      <c r="E2">
-        <v>50.6</v>
+        <v>291.06</v>
       </c>
       <c r="F2">
-        <v>2.69</v>
+        <v>4.89</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -507,68 +537,86 @@
         <v>60</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>73</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
+      <c r="D3">
+        <v>1058.19</v>
+      </c>
+      <c r="F3">
+        <v>7.86</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>43</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>54.6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>1040.97</v>
-      </c>
-      <c r="E3">
-        <v>51.9</v>
-      </c>
-      <c r="F3">
-        <v>0.16</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>46</v>
-      </c>
-      <c r="J3">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>180.26</v>
-      </c>
-      <c r="E4">
-        <v>43.5</v>
+        <v>217.11</v>
       </c>
       <c r="F4">
-        <v>-3.36</v>
+        <v>5.38</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -577,83 +625,113 @@
         <v>60</v>
       </c>
       <c r="I4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>52.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>176.73</v>
+      </c>
+      <c r="F5">
+        <v>-2.16</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>52.6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>167.82</v>
+      </c>
+      <c r="F6">
+        <v>5.15</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>214.24</v>
-      </c>
-      <c r="E5">
-        <v>40.7</v>
-      </c>
-      <c r="F5">
-        <v>-4.16</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>63</v>
-      </c>
-      <c r="I5">
-        <v>43</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>165.14</v>
-      </c>
-      <c r="E6">
-        <v>38.9</v>
-      </c>
-      <c r="F6">
-        <v>-0.58</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>56</v>
-      </c>
       <c r="I6">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>43</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -525,10 +525,10 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>291.06</v>
+        <v>290.89</v>
       </c>
       <c r="F2">
-        <v>4.89</v>
+        <v>4.83</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -543,7 +543,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -569,10 +569,10 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1058.19</v>
+        <v>1060</v>
       </c>
       <c r="F3">
-        <v>7.86</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -587,7 +587,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -613,10 +613,10 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>217.11</v>
+        <v>217.53</v>
       </c>
       <c r="F4">
-        <v>5.38</v>
+        <v>5.59</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -631,7 +631,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -657,10 +657,10 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>176.73</v>
+        <v>177</v>
       </c>
       <c r="F5">
-        <v>-2.16</v>
+        <v>-2.02</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -675,7 +675,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -701,25 +701,25 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>167.82</v>
+        <v>168.09</v>
       </c>
       <c r="F6">
-        <v>5.15</v>
+        <v>5.33</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -525,10 +525,10 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>290.89</v>
+        <v>291.51</v>
       </c>
       <c r="F2">
-        <v>4.83</v>
+        <v>5.05</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -543,7 +543,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>64.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -587,7 +587,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -631,7 +631,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -675,7 +675,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -719,7 +719,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -543,7 +543,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>64.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -587,7 +587,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -631,7 +631,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -675,7 +675,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -719,7 +719,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -527,11 +527,14 @@
       <c r="D2">
         <v>291.51</v>
       </c>
+      <c r="E2">
+        <v>54.2</v>
+      </c>
       <c r="F2">
         <v>5.05</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -543,7 +546,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>64.2</v>
+        <v>67.2</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -571,11 +574,14 @@
       <c r="D3">
         <v>1060</v>
       </c>
+      <c r="E3">
+        <v>56.9</v>
+      </c>
       <c r="F3">
         <v>8.050000000000001</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -587,7 +593,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.8</v>
+        <v>57.8</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -596,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -615,11 +621,14 @@
       <c r="D4">
         <v>217.53</v>
       </c>
+      <c r="E4">
+        <v>43.6</v>
+      </c>
       <c r="F4">
         <v>5.59</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -631,7 +640,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -640,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -659,11 +668,14 @@
       <c r="D5">
         <v>177</v>
       </c>
+      <c r="E5">
+        <v>41.2</v>
+      </c>
       <c r="F5">
         <v>-2.02</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -675,7 +687,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>52.8</v>
+        <v>55.8</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -684,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -703,11 +715,14 @@
       <c r="D6">
         <v>168.09</v>
       </c>
+      <c r="E6">
+        <v>46.2</v>
+      </c>
       <c r="F6">
         <v>5.33</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -719,7 +734,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -728,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Taiwan Semiconductor Manufactur</t>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>Taiwan Semiconductor Manufactur</t>
@@ -70,30 +70,30 @@
     <t>ASML Holding N.V. - New York Re</t>
   </si>
   <si>
+    <t>QUALCOMM Incorporated</t>
+  </si>
+  <si>
+    <t>NVIDIA Corporation</t>
+  </si>
+  <si>
     <t>Advanced Micro Devices, Inc.</t>
   </si>
   <si>
-    <t>NVIDIA Corporation</t>
-  </si>
-  <si>
-    <t>QUALCOMM Incorporated</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
     <t>ASML</t>
   </si>
   <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
     <t>AMD</t>
   </si>
   <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
@@ -103,7 +103,7 @@
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -525,28 +525,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>291.51</v>
+        <v>292.03</v>
       </c>
       <c r="E2">
-        <v>54.2</v>
+        <v>50.8</v>
       </c>
       <c r="F2">
-        <v>5.05</v>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>73</v>
       </c>
       <c r="K2">
-        <v>67.2</v>
+        <v>62.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,28 +572,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1060</v>
+        <v>1098.26</v>
       </c>
       <c r="E3">
-        <v>56.9</v>
+        <v>62.1</v>
       </c>
       <c r="F3">
-        <v>8.050000000000001</v>
+        <v>11.18</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K3">
-        <v>57.8</v>
+        <v>55.8</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,28 +619,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>217.53</v>
+        <v>169.92</v>
       </c>
       <c r="E4">
-        <v>43.6</v>
+        <v>44.3</v>
       </c>
       <c r="F4">
-        <v>5.59</v>
+        <v>2.94</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
         <v>60</v>
       </c>
-      <c r="I4">
-        <v>53</v>
-      </c>
       <c r="J4">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,28 +666,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>177</v>
+        <v>181.43</v>
       </c>
       <c r="E5">
-        <v>41.2</v>
+        <v>38.5</v>
       </c>
       <c r="F5">
-        <v>-2.02</v>
+        <v>-0.61</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J5">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>55.8</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -713,28 +713,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>168.09</v>
+        <v>217.33</v>
       </c>
       <c r="E6">
-        <v>46.2</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>5.33</v>
+        <v>1.06</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>52</v>
+        <v>44.6</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -525,13 +525,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>292.03</v>
+        <v>292.09</v>
       </c>
       <c r="E2">
         <v>50.8</v>
       </c>
       <c r="F2">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -546,7 +546,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>62.8</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,13 +572,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1098.26</v>
+        <v>1108.78</v>
       </c>
       <c r="E3">
-        <v>62.1</v>
+        <v>63.3</v>
       </c>
       <c r="F3">
-        <v>11.18</v>
+        <v>12.25</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -590,10 +590,10 @@
         <v>53</v>
       </c>
       <c r="J3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,13 +619,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>169.92</v>
+        <v>170.7</v>
       </c>
       <c r="E4">
-        <v>44.3</v>
+        <v>45.5</v>
       </c>
       <c r="F4">
-        <v>2.94</v>
+        <v>3.42</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -640,7 +640,7 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,13 +666,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>181.43</v>
+        <v>181.46</v>
       </c>
       <c r="E5">
         <v>38.5</v>
       </c>
       <c r="F5">
-        <v>-0.61</v>
+        <v>-0.6</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -687,7 +687,7 @@
         <v>63</v>
       </c>
       <c r="K5">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -713,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>217.33</v>
+        <v>215.24</v>
       </c>
       <c r="E6">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="F6">
-        <v>1.06</v>
+        <v>0.09</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -731,10 +731,10 @@
         <v>40</v>
       </c>
       <c r="J6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>날짜</t>
   </si>
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>Taiwan Semiconductor Manufactur</t>
@@ -97,13 +97,10 @@
     <t>Pattern</t>
   </si>
   <si>
-    <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -525,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>292.09</v>
+        <v>293.08</v>
       </c>
       <c r="E2">
-        <v>50.8</v>
+        <v>60.5</v>
       </c>
       <c r="F2">
-        <v>2.62</v>
+        <v>1.08</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K2">
-        <v>63</v>
+        <v>57.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,10 +552,10 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -572,40 +569,40 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1108.78</v>
+        <v>1117.35</v>
       </c>
       <c r="E3">
-        <v>63.3</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>12.25</v>
+        <v>7.34</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K3">
-        <v>56</v>
+        <v>57.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>52.43913937059539</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
-      </c>
-      <c r="N3">
-        <v>66.09241856096124</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -619,40 +616,40 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>170.7</v>
+        <v>174.51</v>
       </c>
       <c r="E4">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>3.42</v>
+        <v>5.67</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>55.8</v>
+        <v>50.9</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>52.43913937059539</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
-      </c>
-      <c r="N4">
-        <v>66.09241856096124</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -666,40 +663,40 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>181.46</v>
+        <v>184.19</v>
       </c>
       <c r="E5">
-        <v>38.5</v>
+        <v>47.3</v>
       </c>
       <c r="F5">
-        <v>-0.6</v>
+        <v>2.18</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>52.43913937059539</v>
+      </c>
+      <c r="O5" t="s">
         <v>28</v>
-      </c>
-      <c r="N5">
-        <v>66.09241856096124</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -713,40 +710,40 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>215.24</v>
+        <v>219.03</v>
       </c>
       <c r="E6">
-        <v>40.3</v>
+        <v>33.2</v>
       </c>
       <c r="F6">
-        <v>0.09</v>
+        <v>2.24</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J6">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>44.8</v>
+        <v>45.7</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>52.43913937059539</v>
+      </c>
+      <c r="O6" t="s">
         <v>28</v>
-      </c>
-      <c r="N6">
-        <v>66.09241856096124</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>293.08</v>
+        <v>293.25</v>
       </c>
       <c r="E2">
-        <v>60.5</v>
+        <v>60.7</v>
       </c>
       <c r="F2">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -537,13 +537,13 @@
         <v>70</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>83</v>
       </c>
       <c r="K2">
-        <v>57.7</v>
+        <v>58.9</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>174.51</v>
+        <v>174.49</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>184.19</v>
+        <v>184.34</v>
       </c>
       <c r="E5">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="F5">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>219.03</v>
+        <v>218.94</v>
       </c>
       <c r="E6">
         <v>33.2</v>
       </c>
       <c r="F6">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>293.25</v>
+        <v>292.29</v>
       </c>
       <c r="E2">
-        <v>60.7</v>
+        <v>59.6</v>
       </c>
       <c r="F2">
-        <v>1.13</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -543,7 +543,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1117.35</v>
+        <v>1110.81</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>62.8</v>
       </c>
       <c r="F3">
-        <v>7.34</v>
+        <v>6.71</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -584,13 +584,13 @@
         <v>53</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>57.7</v>
+        <v>59.3</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>174.49</v>
+        <v>174.19</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="F4">
-        <v>5.66</v>
+        <v>5.48</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>50.9</v>
+        <v>50.1</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>184.34</v>
+        <v>183.79</v>
       </c>
       <c r="E5">
-        <v>47.5</v>
+        <v>46.9</v>
       </c>
       <c r="F5">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,19 +710,19 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>218.94</v>
+        <v>218.1</v>
       </c>
       <c r="E6">
-        <v>33.2</v>
+        <v>32.5</v>
       </c>
       <c r="F6">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I6">
         <v>60</v>
@@ -731,7 +731,7 @@
         <v>63</v>
       </c>
       <c r="K6">
-        <v>45.7</v>
+        <v>46.1</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>292.29</v>
+        <v>292.4</v>
       </c>
       <c r="E2">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1110.81</v>
+        <v>1113.39</v>
       </c>
       <c r="E3">
-        <v>62.8</v>
+        <v>63.3</v>
       </c>
       <c r="F3">
-        <v>6.71</v>
+        <v>6.96</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -584,13 +584,13 @@
         <v>53</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>70</v>
       </c>
       <c r="K3">
-        <v>59.3</v>
+        <v>58.1</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>174.19</v>
+        <v>174.35</v>
       </c>
       <c r="E4">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="F4">
-        <v>5.48</v>
+        <v>5.58</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,19 +663,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>183.79</v>
+        <v>183.47</v>
       </c>
       <c r="E5">
-        <v>46.9</v>
+        <v>46.6</v>
       </c>
       <c r="F5">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>60</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>218.1</v>
+        <v>217.06</v>
       </c>
       <c r="E6">
-        <v>32.5</v>
+        <v>31.9</v>
       </c>
       <c r="F6">
-        <v>1.8</v>
+        <v>1.32</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>292.4</v>
+        <v>291.75</v>
       </c>
       <c r="E2">
-        <v>59.7</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -543,7 +543,7 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>59.3</v>
+        <v>59.4</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1113.39</v>
+        <v>1112.59</v>
       </c>
       <c r="E3">
-        <v>63.3</v>
+        <v>63.2</v>
       </c>
       <c r="F3">
-        <v>6.96</v>
+        <v>6.88</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -590,7 +590,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>174.35</v>
+        <v>174.45</v>
       </c>
       <c r="E4">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="F4">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>50.1</v>
+        <v>51.4</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,19 +663,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>183.47</v>
+        <v>183.56</v>
       </c>
       <c r="E5">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="F5">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>60</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,28 +710,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>217.06</v>
+        <v>215.87</v>
       </c>
       <c r="E6">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="F6">
-        <v>1.32</v>
+        <v>0.76</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>60</v>
       </c>
       <c r="J6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -64,12 +64,12 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>ASML Holding N.V. - New York Re</t>
+  </si>
+  <si>
     <t>Taiwan Semiconductor Manufactur</t>
   </si>
   <si>
-    <t>ASML Holding N.V. - New York Re</t>
-  </si>
-  <si>
     <t>QUALCOMM Incorporated</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Advanced Micro Devices, Inc.</t>
   </si>
   <si>
+    <t>ASML</t>
+  </si>
+  <si>
     <t>TSM</t>
-  </si>
-  <si>
-    <t>ASML</t>
   </si>
   <si>
     <t>QCOM</t>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>291.75</v>
+        <v>1110.08</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>62.7</v>
       </c>
       <c r="F2">
-        <v>0.62</v>
+        <v>6.64</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I2">
         <v>63</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K2">
-        <v>59.4</v>
+        <v>59.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1112.59</v>
+        <v>292.93</v>
       </c>
       <c r="E3">
-        <v>63.2</v>
+        <v>60.3</v>
       </c>
       <c r="F3">
-        <v>6.88</v>
+        <v>1.02</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>60</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>174.45</v>
+        <v>174.35</v>
       </c>
       <c r="E4">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F4">
-        <v>5.64</v>
+        <v>5.58</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.4</v>
+        <v>50.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,19 +663,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>183.56</v>
+        <v>183.38</v>
       </c>
       <c r="E5">
-        <v>46.7</v>
+        <v>46.5</v>
       </c>
       <c r="F5">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>60</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.2</v>
+        <v>49.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>215.87</v>
+        <v>215.98</v>
       </c>
       <c r="E6">
         <v>31.5</v>
       </c>
       <c r="F6">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -731,7 +731,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -543,7 +543,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -543,7 +543,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>50.4</v>
+        <v>50.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -543,7 +543,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -619,25 +619,25 @@
         <v>174.35</v>
       </c>
       <c r="E4">
-        <v>49.8</v>
+        <v>51</v>
       </c>
       <c r="F4">
-        <v>5.58</v>
+        <v>6.12</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>50.5</v>
+        <v>51.6</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -669,7 +669,7 @@
         <v>46.5</v>
       </c>
       <c r="F5">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -543,7 +543,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>59.6</v>
+        <v>58.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>58.4</v>
+        <v>57.5</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.6</v>
+        <v>50.7</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.4</v>
+        <v>48.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>46.4</v>
+        <v>45.5</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -543,7 +543,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -590,7 +590,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>날짜</t>
   </si>
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>ASML Holding N.V. - New York Re</t>
@@ -70,31 +70,34 @@
     <t>Taiwan Semiconductor Manufactur</t>
   </si>
   <si>
+    <t>Advanced Micro Devices, Inc.</t>
+  </si>
+  <si>
+    <t>NVIDIA Corporation</t>
+  </si>
+  <si>
     <t>QUALCOMM Incorporated</t>
   </si>
   <si>
-    <t>NVIDIA Corporation</t>
-  </si>
-  <si>
-    <t>Advanced Micro Devices, Inc.</t>
-  </si>
-  <si>
     <t>ASML</t>
   </si>
   <si>
     <t>TSM</t>
   </si>
   <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
     <t>QCOM</t>
   </si>
   <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -522,28 +525,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>1110.08</v>
+        <v>1122.4</v>
       </c>
       <c r="E2">
-        <v>62.7</v>
+        <v>66.3</v>
       </c>
       <c r="F2">
-        <v>6.64</v>
+        <v>5.89</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>58.5</v>
+        <v>63.9</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,10 +555,10 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -569,40 +572,40 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>292.93</v>
+        <v>299.95</v>
       </c>
       <c r="E3">
-        <v>60.3</v>
+        <v>63.4</v>
       </c>
       <c r="F3">
-        <v>1.02</v>
+        <v>2.89</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>57.3</v>
+        <v>58.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -616,40 +619,40 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>174.35</v>
+        <v>222.98</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>37.1</v>
       </c>
       <c r="F4">
-        <v>6.12</v>
+        <v>2.51</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="J4">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>50.5</v>
+        <v>55.9</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -663,40 +666,40 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>183.38</v>
+        <v>182.74</v>
       </c>
       <c r="E5">
-        <v>46.5</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>48.3</v>
+        <v>50.9</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -710,40 +713,40 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>215.98</v>
+        <v>175.78</v>
       </c>
       <c r="E6">
-        <v>31.5</v>
+        <v>53.6</v>
       </c>
       <c r="F6">
-        <v>0.8100000000000001</v>
+        <v>5.11</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>45.3</v>
+        <v>49.5</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -525,13 +525,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>1122.4</v>
+        <v>1111.18</v>
       </c>
       <c r="E2">
-        <v>66.3</v>
+        <v>65.2</v>
       </c>
       <c r="F2">
-        <v>5.89</v>
+        <v>4.83</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -546,7 +546,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,13 +572,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>299.95</v>
+        <v>296.63</v>
       </c>
       <c r="E3">
-        <v>63.4</v>
+        <v>61.2</v>
       </c>
       <c r="F3">
-        <v>2.89</v>
+        <v>1.76</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -593,7 +593,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>58.7</v>
+        <v>58.4</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,13 +619,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>222.98</v>
+        <v>218.29</v>
       </c>
       <c r="E4">
-        <v>37.1</v>
+        <v>33.7</v>
       </c>
       <c r="F4">
-        <v>2.51</v>
+        <v>0.35</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -637,10 +637,10 @@
         <v>86</v>
       </c>
       <c r="J4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,13 +666,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>182.74</v>
+        <v>181.86</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="F5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -687,7 +687,7 @@
         <v>66</v>
       </c>
       <c r="K5">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -713,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>175.78</v>
+        <v>176.21</v>
       </c>
       <c r="E6">
-        <v>53.6</v>
+        <v>54.2</v>
       </c>
       <c r="F6">
-        <v>5.11</v>
+        <v>5.37</v>
       </c>
       <c r="G6">
         <v>60</v>
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -525,13 +525,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>1111.18</v>
+        <v>1107.73</v>
       </c>
       <c r="E2">
-        <v>65.2</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F2">
-        <v>4.83</v>
+        <v>4.5</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,13 +572,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>296.63</v>
+        <v>296.26</v>
       </c>
       <c r="E3">
-        <v>61.2</v>
+        <v>60.9</v>
       </c>
       <c r="F3">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,13 +619,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>218.29</v>
+        <v>217.76</v>
       </c>
       <c r="E4">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="F4">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,13 +666,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>181.86</v>
+        <v>181.91</v>
       </c>
       <c r="E5">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="F5">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -713,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>176.21</v>
+        <v>175.37</v>
       </c>
       <c r="E6">
-        <v>54.2</v>
+        <v>53.1</v>
       </c>
       <c r="F6">
-        <v>5.37</v>
+        <v>4.86</v>
       </c>
       <c r="G6">
         <v>60</v>
@@ -728,13 +728,13 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J6">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -525,13 +525,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>1107.73</v>
+        <v>1109.35</v>
       </c>
       <c r="E2">
-        <v>64.59999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F2">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -546,7 +546,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>63.6</v>
+        <v>63.1</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,13 +572,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>296.26</v>
+        <v>296.88</v>
       </c>
       <c r="E3">
-        <v>60.9</v>
+        <v>61.3</v>
       </c>
       <c r="F3">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -593,7 +593,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,13 +619,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>217.76</v>
+        <v>218.63</v>
       </c>
       <c r="E4">
-        <v>33.3</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.11</v>
+        <v>0.51</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -640,7 +640,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,13 +666,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>181.91</v>
+        <v>182.43</v>
       </c>
       <c r="E5">
-        <v>41.3</v>
+        <v>41.7</v>
       </c>
       <c r="F5">
-        <v>2.78</v>
+        <v>3.07</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -687,7 +687,7 @@
         <v>66</v>
       </c>
       <c r="K5">
-        <v>50.6</v>
+        <v>50.1</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -713,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>175.37</v>
+        <v>175.91</v>
       </c>
       <c r="E6">
-        <v>53.1</v>
+        <v>53.8</v>
       </c>
       <c r="F6">
-        <v>4.86</v>
+        <v>5.19</v>
       </c>
       <c r="G6">
         <v>60</v>
@@ -728,13 +728,13 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>47.6</v>
+        <v>48.7</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_반도체_분석.xlsx
+++ b/DECISION/미장_반도체_분석.xlsx
@@ -525,13 +525,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>1109.35</v>
+        <v>1099.47</v>
       </c>
       <c r="E2">
-        <v>64.90000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="F2">
-        <v>4.66</v>
+        <v>3.72</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -546,7 +546,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>63.1</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,19 +572,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>296.88</v>
+        <v>294.72</v>
       </c>
       <c r="E3">
-        <v>61.3</v>
+        <v>59.7</v>
       </c>
       <c r="F3">
-        <v>1.84</v>
+        <v>1.1</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>63</v>
@@ -593,7 +593,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>57.9</v>
+        <v>58.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,13 +619,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>218.63</v>
+        <v>217.97</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="F4">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -640,7 +640,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>55.1</v>
+        <v>56.1</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,13 +666,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>182.43</v>
+        <v>182.41</v>
       </c>
       <c r="E5">
         <v>41.7</v>
       </c>
       <c r="F5">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -687,7 +687,7 @@
         <v>66</v>
       </c>
       <c r="K5">
-        <v>50.1</v>
+        <v>51.1</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -713,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>175.91</v>
+        <v>174.81</v>
       </c>
       <c r="E6">
-        <v>53.8</v>
+        <v>52.4</v>
       </c>
       <c r="F6">
-        <v>5.19</v>
+        <v>4.53</v>
       </c>
       <c r="G6">
         <v>60</v>
@@ -728,13 +728,13 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J6">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>48.7</v>
+        <v>48.1</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
